--- a/biology/Botanique/Phytolacca/Phytolacca.xlsx
+++ b/biology/Botanique/Phytolacca/Phytolacca.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Phytolacca est un genre de plantes arbustives ou arborescentes de la famille des Phytolaccaceae.
-Ses espèces sont parfois appelées « phytolaques ». En France, on trouve le Raisin d'Amérique (Phytolacca americana) qui présente des caractéristiques d'une espèce exotique envahissante[1].
+Ses espèces sont parfois appelées « phytolaques ». En France, on trouve le Raisin d'Amérique (Phytolacca americana) qui présente des caractéristiques d'une espèce exotique envahissante.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Phytolacca abyssinica Hoffm.
 Phytolacca americana L. - ou raisin d'Amérique.
@@ -553,10 +567,12 @@
           <t>Phytolacca americana : invasive et toxique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Phytolacca americana originaire des États-Unis, une grande plante aux fruits noirs ridés en grande grappe (le jus, pourpre, toxique, est utilisé en teinture), connue sous le nom de « raisin d'Amérique ». Cette plante était utilisée pour teinter artificiellement le vin. Elle pousse encore librement autour des centrales vinicoles de l'Hérault (Marseillan).
-Très toxique et « facteur de déforestation » : par sa toxicité, elle étouffe les plantes de sous-bois (sauf la ronce et la fougère) et tue les jeunes pousses de pins et de chênes. Elle a parfois fait l'objet de campagne d'arrachage dans les forêts d'Île-de-France, par exemple en 2009, par le Club Alpin Français local[2].
+Très toxique et « facteur de déforestation » : par sa toxicité, elle étouffe les plantes de sous-bois (sauf la ronce et la fougère) et tue les jeunes pousses de pins et de chênes. Elle a parfois fait l'objet de campagne d'arrachage dans les forêts d'Île-de-France, par exemple en 2009, par le Club Alpin Français local.
 </t>
         </is>
       </c>
